--- a/data/trans_camb/P15_3-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P15_3-Estudios-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,91</t>
+          <t>-2,36</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>9,68</t>
+          <t>11,46</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>16,71</t>
+          <t>14,4</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,77</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>7,83</t>
+          <t>9,17</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>16,01</t>
+          <t>25,96</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-0,46</t>
+          <t>-1,07</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>8,6</t>
+          <t>10,29</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>16,28</t>
+          <t>20,42</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-8,89; 4,26</t>
+          <t>-12,85; 3,44</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,27; 18,44</t>
+          <t>-1,69; 25,11</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,97; 27,45</t>
+          <t>-1,51; 28,73</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,15; 6,39</t>
+          <t>-3,03; 4,87</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,17; 15,76</t>
+          <t>2,03; 18,42</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>5,82; 25,04</t>
+          <t>13,51; 39,07</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-4,9; 3,47</t>
+          <t>-5,78; 2,26</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,13; 14,09</t>
+          <t>3,39; 18,17</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>8,89; 23,58</t>
+          <t>10,91; 30,46</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-29,39%</t>
+          <t>-55,03%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>148,63%</t>
+          <t>266,86%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>256,7%</t>
+          <t>335,27%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>15,8%</t>
+          <t>3,64%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>160,2%</t>
+          <t>613,54%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>327,63%</t>
+          <t>1737,76%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-8,19%</t>
+          <t>-38,27%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>152,92%</t>
+          <t>367,1%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>289,28%</t>
+          <t>728,69%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-86,42; 156,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,97; 631,7</t>
+          <t>-47,27; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>52,73; 892,51</t>
+          <t>-25,16; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-70,89; 295,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,19; 668,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>70,98; 1134,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-62,67; 102,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>34,14; 422,95</t>
+          <t>5,83; 1956,66</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>104,85; 683,03</t>
+          <t>143,81; 3201,81</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-2,48</t>
+          <t>-4,76</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>10,38</t>
+          <t>12,08</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>19,83</t>
+          <t>25,36</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-2,0</t>
+          <t>-3,98</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>9,46</t>
+          <t>7,94</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>23,16</t>
+          <t>20,95</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-2,23</t>
+          <t>-4,36</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>9,92</t>
+          <t>10,0</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>21,42</t>
+          <t>23,22</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,02; 1,13</t>
+          <t>-10,72; 0,34</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,38; 16,08</t>
+          <t>4,38; 20,49</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>13,66; 26,84</t>
+          <t>15,69; 35,56</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,56; 2,19</t>
+          <t>-9,49; 0,99</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,71; 14,42</t>
+          <t>1,34; 14,61</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>16,99; 30,25</t>
+          <t>12,53; 28,43</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-5,12; 0,94</t>
+          <t>-8,69; -0,75</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>6,18; 14,31</t>
+          <t>5,09; 15,52</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>16,77; 26,81</t>
+          <t>17,61; 29,84</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-31,31%</t>
+          <t>-54,74%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>131,01%</t>
+          <t>138,92%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>250,22%</t>
+          <t>291,61%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-25,31%</t>
+          <t>-44,95%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>119,91%</t>
+          <t>89,6%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>293,51%</t>
+          <t>236,33%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-28,21%</t>
+          <t>-49,6%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>125,5%</t>
+          <t>113,82%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>271,01%</t>
+          <t>264,35%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-66,06; 21,96</t>
+          <t>-86,08; 13,84</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>40,34; 268,87</t>
+          <t>28,6; 346,19</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>126,98; 464,98</t>
+          <t>121,27; 628,36</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-65,44; 46,56</t>
+          <t>-76,53; 27,18</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>33,99; 272,71</t>
+          <t>5,44; 254,57</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>147,78; 531,64</t>
+          <t>91,16; 479,45</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-53,72; 16,08</t>
+          <t>-74,05; -5,0</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>63,51; 234,16</t>
+          <t>41,41; 230,04</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>176,12; 435,28</t>
+          <t>151,97; 464,43</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>0,34</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>16,82</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>24,84</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>-1,8</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>14,49</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>24,52</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-4,17</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>9,11</t>
+          <t>6,86</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>19,83</t>
+          <t>19,77</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-3,07</t>
+          <t>-0,82</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>11,59</t>
+          <t>11,29</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>21,97</t>
+          <t>21,98</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-7,52; 3,66</t>
+          <t>-6,18; 7,05</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,34; 22,32</t>
+          <t>7,11; 25,18</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>16,12; 33,52</t>
+          <t>15,01; 35,09</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-10,26; 1,64</t>
+          <t>-9,61; 6,13</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,33; 16,38</t>
+          <t>-1,05; 14,66</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>11,94; 27,87</t>
+          <t>10,12; 28,57</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-7,2; 1,21</t>
+          <t>-6,51; 3,78</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>6,51; 17,06</t>
+          <t>5,4; 16,88</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>16,32; 27,62</t>
+          <t>15,17; 28,47</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-18,65%</t>
+          <t>4,8%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>150,51%</t>
+          <t>235,67%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>254,71%</t>
+          <t>348,01%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-25,36%</t>
+          <t>-12,03%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>55,37%</t>
+          <t>45,98%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>120,5%</t>
+          <t>132,42%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-23,1%</t>
+          <t>-7,11%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>87,09%</t>
+          <t>98,38%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>165,09%</t>
+          <t>191,49%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-57,98; 58,93</t>
+          <t>-62,06; 177,35</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>43,13; 328,84</t>
+          <t>54,08; 629,08</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>118,47; 490,61</t>
+          <t>130,85; 930,73</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-52,36; 12,21</t>
+          <t>-51,83; 58,61</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>12,62; 125,38</t>
+          <t>-6,24; 138,62</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>60,18; 220,02</t>
+          <t>51,23; 275,97</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-47,72; 11,96</t>
+          <t>-44,23; 43,49</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>40,54; 156,03</t>
+          <t>35,87; 186,48</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>102,3; 243,91</t>
+          <t>104,36; 322,18</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-2,18</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>11,59</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>20,71</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-2,29</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>8,94</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>20,34</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-2,25</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>10,19</t>
+          <t>—</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>20,48</t>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,28; 0,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>7,53; 15,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>16,18; 25,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-5,22; 1,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>4,87; 12,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>15,68; 25,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-4,67; -0,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>7,35; 13,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>17,02; 23,8</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-26,37%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>140,26%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>250,59%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-22,11%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>86,42%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>196,55%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-23,96%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>108,67%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>218,41%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1439,58 +1439,282 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-53,22; 11,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>75,1; 234,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>160,24; 386,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-44,39; 13,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>43,21; 148,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>134,28; 301,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-43,9; -4,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>70,6; 162,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>159,66; 295,8</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-2,53</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>13,76</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>23,61</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>-2,54</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>7,63</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>21,03</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-2,53</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>10,52</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>22,22</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-6,26; 0,71</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>8,52; 19,7</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>16,93; 29,74</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-6,74; 1,58</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>2,03; 12,43</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>15,64; 26,44</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-5,42; 0,28</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>7,1; 14,52</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>18,12; 26,6</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-33,77%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>183,31%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>314,56%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>-24,48%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>73,53%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>202,64%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-27,98%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>116,32%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>245,79%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-64,01; 15,11</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>85,74; 346,45</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>173,14; 538,05</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-52,71; 20,47</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>16,22; 153,09</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>115,78; 316,04</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-50,75; 5,01</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>64,98; 189,28</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>164,57; 346,91</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
